--- a/board/crossBar.xlsx
+++ b/board/crossBar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="252">
   <si>
     <t>AF0</t>
   </si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>SRS_MOSI</t>
+  </si>
+  <si>
+    <t>MCU_TX</t>
+  </si>
+  <si>
+    <t>MCU_RX</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1123,10 @@
   <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,6 +1622,12 @@
       <c r="B9" t="s">
         <v>105</v>
       </c>
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
@@ -2368,8 +2380,12 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
+      <c r="C22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>

--- a/board/crossBar.xlsx
+++ b/board/crossBar.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CrossBar" sheetId="1" r:id="rId1"/>
+    <sheet name="Peripherals" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="271">
   <si>
     <t>AF0</t>
   </si>
@@ -288,21 +288,9 @@
     <t>SYS_AF</t>
   </si>
   <si>
-    <t>TIM4/TIM4</t>
-  </si>
-  <si>
-    <t>TIM4/TIM4/TIM5</t>
-  </si>
-  <si>
-    <t>TIM9/TIM40/TIM44</t>
-  </si>
-  <si>
     <t>USART6</t>
   </si>
   <si>
-    <t>OTG4_PS</t>
-  </si>
-  <si>
     <t>SDIO</t>
   </si>
   <si>
@@ -648,12 +636,6 @@
     <t>TIM11_CH2</t>
   </si>
   <si>
-    <t>I2C4/I2C4/I2C4</t>
-  </si>
-  <si>
-    <t>I2C4/I2C4</t>
-  </si>
-  <si>
     <t>I2C1_SMBA</t>
   </si>
   <si>
@@ -663,18 +645,6 @@
     <t>I2C1_SDA</t>
   </si>
   <si>
-    <t>SPI4/SPI4/I2S4/SPI4/I2S4/SPI4</t>
-  </si>
-  <si>
-    <t>SPI4/I2S4/SPI4/I2S4</t>
-  </si>
-  <si>
-    <t>SPI4/I2S4/USART4/USART4</t>
-  </si>
-  <si>
-    <t>SPI4_SCK/I2S4_CK</t>
-  </si>
-  <si>
     <t>SPI3_SCK/I2S3_CK</t>
   </si>
   <si>
@@ -744,18 +714,6 @@
     <t>CHG_RELAY_2</t>
   </si>
   <si>
-    <t>CHARGE_CS</t>
-  </si>
-  <si>
-    <t>CHARGE_SCLK</t>
-  </si>
-  <si>
-    <t>CHARGE_MISO</t>
-  </si>
-  <si>
-    <t>CHARGE_MOSI</t>
-  </si>
-  <si>
     <t>SPI4</t>
   </si>
   <si>
@@ -772,6 +730,105 @@
   </si>
   <si>
     <t>MCU_RX</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>SPI1</t>
+  </si>
+  <si>
+    <t>SPI2</t>
+  </si>
+  <si>
+    <t>SPI3</t>
+  </si>
+  <si>
+    <t>USART1</t>
+  </si>
+  <si>
+    <t>USART2</t>
+  </si>
+  <si>
+    <t>I2C1</t>
+  </si>
+  <si>
+    <t>I2C2</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>SPI3_SCK</t>
+  </si>
+  <si>
+    <t>ADC_SCLK</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>ADC_DRDY</t>
+  </si>
+  <si>
+    <t>ADC_CS</t>
+  </si>
+  <si>
+    <t>ADC_CONV_A</t>
+  </si>
+  <si>
+    <t>ADC_CONV_C</t>
+  </si>
+  <si>
+    <t>ADC_CONV_B</t>
+  </si>
+  <si>
+    <t>ADC_BUSY</t>
+  </si>
+  <si>
+    <t>SRS_DAC</t>
+  </si>
+  <si>
+    <t>SPI1_NSS</t>
+  </si>
+  <si>
+    <t>SPI1/SPI2/I2S2/SPI3/I2S3/SPI4</t>
+  </si>
+  <si>
+    <t>SPI2/I2S2/SPI3/I2S3</t>
+  </si>
+  <si>
+    <t>SPI3/I2S3/USART1/USART2</t>
+  </si>
+  <si>
+    <t>I2C2/I2C3</t>
+  </si>
+  <si>
+    <t>OTG1_FS</t>
+  </si>
+  <si>
+    <t>TIM1/TIM2</t>
+  </si>
+  <si>
+    <t>TIM3/TIM4/TIM5</t>
+  </si>
+  <si>
+    <t>TIM9/TIM10/TIM11</t>
+  </si>
+  <si>
+    <t>I2C1/I2C2/I2C3</t>
+  </si>
+  <si>
+    <t>ADC_MISO_A</t>
+  </si>
+  <si>
+    <t>ADC_MISO_B</t>
+  </si>
+  <si>
+    <t>ADC_MISO_C</t>
+  </si>
+  <si>
+    <t>ADC_RESET</t>
   </si>
 </sst>
 </file>
@@ -1122,11 +1179,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1184,22 +1242,22 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1210,49 +1268,49 @@
         <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>10</v>
@@ -1514,10 +1572,10 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -1532,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
@@ -1564,16 +1622,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -1588,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
@@ -1620,19 +1678,19 @@
         <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1650,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
@@ -1682,13 +1740,13 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -1706,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M10" t="s">
         <v>21</v>
@@ -1738,13 +1796,13 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -1762,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s">
         <v>24</v>
@@ -1794,10 +1852,10 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
@@ -1852,10 +1910,10 @@
         <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
@@ -1912,17 +1970,19 @@
         <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14"/>
+        <v>251</v>
+      </c>
+      <c r="D14" t="s">
+        <v>226</v>
+      </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -1937,7 +1997,7 @@
         <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L14" t="s">
         <v>10</v>
@@ -1972,7 +2032,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1980,13 +2040,13 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1998,7 +2058,7 @@
         <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
@@ -2030,15 +2090,19 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
@@ -2056,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s">
         <v>10</v>
@@ -2091,7 +2155,6 @@
         <v>18</v>
       </c>
       <c r="C17"/>
-      <c r="D17"/>
       <c r="E17" t="s">
         <v>10</v>
       </c>
@@ -2108,13 +2171,13 @@
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="K17" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
@@ -2154,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -2166,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
@@ -2206,16 +2269,18 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
       <c r="D19"/>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
@@ -2224,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
         <v>10</v>
@@ -2264,16 +2329,20 @@
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" t="s">
+        <v>226</v>
+      </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -2282,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
@@ -2325,10 +2394,10 @@
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -2337,7 +2406,7 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
         <v>10</v>
@@ -2346,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M21" t="s">
         <v>10</v>
@@ -2381,16 +2450,16 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -2399,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J22" t="s">
         <v>10</v>
@@ -2408,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="L22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
@@ -2442,14 +2511,20 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
         <v>10</v>
@@ -2496,16 +2571,16 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H24" t="s">
         <v>10</v>
@@ -2552,16 +2627,19 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>233</v>
+      </c>
+      <c r="D25" t="s">
+        <v>240</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -2570,10 +2648,10 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
@@ -2611,16 +2689,19 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="D26" t="s">
+        <v>240</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -2629,10 +2710,10 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
@@ -2670,13 +2751,13 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -2688,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
@@ -2726,13 +2807,13 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -2744,10 +2825,10 @@
         <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s">
         <v>10</v>
@@ -2782,16 +2863,19 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>235</v>
+      </c>
+      <c r="D29" t="s">
+        <v>240</v>
       </c>
       <c r="E29" t="s">
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -2803,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K29" t="s">
         <v>10</v>
@@ -2841,10 +2925,10 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -2862,7 +2946,7 @@
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K30" t="s">
         <v>10</v>
@@ -2900,16 +2984,16 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -2921,10 +3005,10 @@
         <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s">
         <v>10</v>
@@ -2933,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="N31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O31" t="s">
         <v>10</v>
@@ -2962,16 +3046,16 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
@@ -2980,19 +3064,19 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M32" t="s">
         <v>10</v>
       </c>
       <c r="N32" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="O32" t="s">
         <v>10</v>
@@ -3027,19 +3111,19 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s">
         <v>10</v>
@@ -3083,13 +3167,13 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H34" t="s">
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J34" t="s">
         <v>10</v>
@@ -3098,7 +3182,7 @@
         <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M34" t="s">
         <v>10</v>
@@ -3145,7 +3229,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J35" t="s">
         <v>10</v>
@@ -3154,7 +3238,7 @@
         <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M35" t="s">
         <v>10</v>
@@ -3198,10 +3282,10 @@
         <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J36" t="s">
         <v>10</v>
@@ -3254,13 +3338,13 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K37" t="s">
         <v>10</v>
@@ -3356,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3414,7 +3498,13 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" t="s">
+        <v>247</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
@@ -3435,7 +3525,7 @@
         <v>10</v>
       </c>
       <c r="K40" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="L40" t="s">
         <v>10</v>
@@ -3453,7 +3543,7 @@
         <v>10</v>
       </c>
       <c r="Q40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R40" t="s">
         <v>10</v>
@@ -3470,7 +3560,13 @@
         <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
@@ -3488,10 +3584,10 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="K41" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s">
         <v>10</v>
@@ -3509,7 +3605,7 @@
         <v>10</v>
       </c>
       <c r="Q41" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="R41" t="s">
         <v>10</v>
@@ -3526,7 +3622,13 @@
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" t="s">
+        <v>226</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -3547,7 +3649,7 @@
         <v>10</v>
       </c>
       <c r="K42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s">
         <v>10</v>
@@ -3582,7 +3684,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
@@ -3638,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
@@ -3694,7 +3796,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -3750,7 +3852,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3770,10 +3872,10 @@
         <v>10</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>10</v>
@@ -3808,7 +3910,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3828,7 +3930,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>10</v>
@@ -3868,6 +3970,12 @@
       <c r="B48" t="s">
         <v>54</v>
       </c>
+      <c r="C48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" t="s">
+        <v>226</v>
+      </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
@@ -3924,6 +4032,12 @@
       <c r="B49" t="s">
         <v>56</v>
       </c>
+      <c r="C49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" t="s">
+        <v>226</v>
+      </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
@@ -3987,7 +4101,7 @@
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H50" t="s">
         <v>10</v>
@@ -3996,7 +4110,7 @@
         <v>10</v>
       </c>
       <c r="J50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K50" t="s">
         <v>10</v>
@@ -4043,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H51" t="s">
         <v>10</v>
@@ -4055,7 +4169,7 @@
         <v>10</v>
       </c>
       <c r="K51" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s">
         <v>10</v>
@@ -4099,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H52" t="s">
         <v>10</v>
@@ -4149,19 +4263,19 @@
         <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I53" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J53" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K53" t="s">
         <v>10</v>
@@ -4182,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="Q53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="R53" t="s">
         <v>10</v>
@@ -4202,10 +4316,10 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -4258,13 +4372,13 @@
         <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -4282,7 +4396,7 @@
         <v>10</v>
       </c>
       <c r="J55" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="K55" t="s">
         <v>10</v>
@@ -4320,7 +4434,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -4373,7 +4487,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -4429,7 +4543,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -4438,7 +4552,7 @@
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H58" t="s">
         <v>10</v>
@@ -4485,7 +4599,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -4541,7 +4655,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -4597,7 +4711,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -4653,13 +4767,13 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -4668,7 +4782,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H62" t="s">
         <v>10</v>
@@ -4715,10 +4829,10 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -4736,13 +4850,13 @@
         <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K63" t="s">
         <v>10</v>
       </c>
       <c r="L63" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M63" t="s">
         <v>10</v>
@@ -4777,10 +4891,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -4804,7 +4918,7 @@
         <v>10</v>
       </c>
       <c r="L64" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M64" t="s">
         <v>10</v>
@@ -4839,10 +4953,10 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -4866,7 +4980,7 @@
         <v>10</v>
       </c>
       <c r="L65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M65" t="s">
         <v>10</v>
@@ -4901,10 +5015,10 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -4922,13 +5036,13 @@
         <v>10</v>
       </c>
       <c r="J66" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K66" t="s">
         <v>10</v>
       </c>
       <c r="L66" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M66" t="s">
         <v>10</v>
@@ -4984,7 +5098,7 @@
         <v>10</v>
       </c>
       <c r="L67" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M67" t="s">
         <v>10</v>
@@ -5184,13 +5298,13 @@
         <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
@@ -5240,13 +5354,13 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
@@ -5296,19 +5410,13 @@
         <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" t="s">
-        <v>242</v>
-      </c>
-      <c r="D73" t="s">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -5358,19 +5466,13 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="E74" t="s">
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G74" t="s">
         <v>10</v>
@@ -5420,19 +5522,13 @@
         <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G75" t="s">
         <v>10</v>
@@ -5482,19 +5578,13 @@
         <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" t="s">
-        <v>245</v>
-      </c>
-      <c r="D76" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G76" t="s">
         <v>10</v>
@@ -5544,13 +5634,13 @@
         <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G77" t="s">
         <v>10</v>
@@ -5715,7 +5805,7 @@
         <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -5770,8 +5860,14 @@
       <c r="B81" t="s">
         <v>80</v>
       </c>
+      <c r="C81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -5780,7 +5876,7 @@
         <v>10</v>
       </c>
       <c r="H81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I81" t="s">
         <v>10</v>
@@ -5886,7 +5982,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G83" t="s">
         <v>10</v>
@@ -5942,7 +6038,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G84" t="s">
         <v>10</v>
@@ -5998,7 +6094,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G85" t="s">
         <v>10</v>
@@ -6048,10 +6144,10 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -6107,10 +6203,10 @@
         <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -6166,10 +6262,10 @@
         <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -6225,10 +6321,10 @@
         <v>11</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
@@ -6285,10 +6381,10 @@
         <v>19</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
@@ -6345,10 +6441,10 @@
         <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
@@ -6404,10 +6500,10 @@
         <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -6463,10 +6559,10 @@
         <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -6522,10 +6618,10 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -6581,10 +6677,10 @@
         <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -6640,10 +6736,10 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -6699,10 +6795,10 @@
         <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
@@ -6759,10 +6855,10 @@
         <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -6818,10 +6914,10 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -6877,10 +6973,10 @@
         <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
@@ -6936,10 +7032,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
@@ -6995,10 +7091,10 @@
         <v>20</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
@@ -7062,12 +7158,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/board/crossBar.xlsx
+++ b/board/crossBar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CrossBar" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="281">
   <si>
     <t>AF0</t>
   </si>
@@ -829,6 +829,36 @@
   </si>
   <si>
     <t>ADC_RESET</t>
+  </si>
+  <si>
+    <t>CUR_PHASE</t>
+  </si>
+  <si>
+    <t>TIM2_CH1</t>
+  </si>
+  <si>
+    <t>SIG_PHASE</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>TIM9</t>
+  </si>
+  <si>
+    <t>TIM10</t>
+  </si>
+  <si>
+    <t>TIM11</t>
   </si>
 </sst>
 </file>
@@ -1179,12 +1209,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G2" sqref="G2"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,8 +2241,12 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" t="s">
+        <v>272</v>
+      </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
@@ -2391,8 +2425,12 @@
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="C21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
       <c r="E21" t="s">
         <v>145</v>
       </c>
@@ -7158,16 +7196,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7236,6 +7274,47 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/board/crossBar.xlsx
+++ b/board/crossBar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="CrossBar" sheetId="1" r:id="rId1"/>
@@ -705,15 +705,6 @@
     <t>DISCHG_RELAY_2</t>
   </si>
   <si>
-    <t>CHG_RELAY_1</t>
-  </si>
-  <si>
-    <t>CHG_RELAY_3</t>
-  </si>
-  <si>
-    <t>CHG_RELAY_2</t>
-  </si>
-  <si>
     <t>SPI4</t>
   </si>
   <si>
@@ -859,6 +850,15 @@
   </si>
   <si>
     <t>TIM11</t>
+  </si>
+  <si>
+    <t>CHG_RELAY</t>
+  </si>
+  <si>
+    <t>DISCHG_RELAY_MAIN</t>
+  </si>
+  <si>
+    <t>OPTO_SIGNAL_RELAY</t>
   </si>
 </sst>
 </file>
@@ -1209,19 +1209,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G2" sqref="G2"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="C89" sqref="C89:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -1307,34 +1307,34 @@
         <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>10</v>
@@ -1354,16 +1354,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1378,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -1408,219 +1405,213 @@
         <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>10</v>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>10</v>
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>10</v>
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
@@ -1649,19 +1640,22 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -1676,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
@@ -1700,27 +1694,21 @@
         <v>10</v>
       </c>
       <c r="T8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1738,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
@@ -1747,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P9" t="s">
         <v>10</v>
@@ -1767,16 +1755,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -1794,16 +1782,16 @@
         <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N10" t="s">
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P10" t="s">
         <v>10</v>
@@ -1823,16 +1811,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -1850,16 +1838,16 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P11" t="s">
         <v>10</v>
@@ -1878,691 +1866,660 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" t="s">
-        <v>17</v>
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" t="s">
-        <v>17</v>
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s">
-        <v>202</v>
-      </c>
-      <c r="L14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" t="s">
-        <v>17</v>
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" t="s">
-        <v>178</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" t="s">
-        <v>17</v>
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D16" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="C17"/>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>257</v>
-      </c>
-      <c r="K17" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>10</v>
-      </c>
-      <c r="R17" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>163</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" t="s">
-        <v>10</v>
-      </c>
-      <c r="S19" t="s">
-        <v>10</v>
-      </c>
-      <c r="T19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" t="s">
-        <v>10</v>
-      </c>
-      <c r="T20" t="s">
-        <v>17</v>
+      <c r="B20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" t="s">
-        <v>162</v>
-      </c>
-      <c r="M21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" t="s">
-        <v>17</v>
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" t="s">
-        <v>200</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" t="s">
-        <v>161</v>
-      </c>
-      <c r="M22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S22" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" t="s">
-        <v>17</v>
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
         <v>10</v>
@@ -2601,24 +2558,27 @@
         <v>10</v>
       </c>
       <c r="T23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>10</v>
@@ -2657,45 +2617,39 @@
         <v>10</v>
       </c>
       <c r="T24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="H25" t="s">
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="K25" t="s">
         <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s">
         <v>10</v>
@@ -2724,40 +2678,34 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" t="s">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s">
         <v>10</v>
@@ -2786,34 +2734,34 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s">
         <v>10</v>
@@ -2842,34 +2790,40 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" t="s">
+        <v>226</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="M28" t="s">
         <v>10</v>
@@ -2898,22 +2852,19 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" t="s">
-        <v>240</v>
+        <v>96</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -2925,7 +2876,7 @@
         <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="K29" t="s">
         <v>10</v>
@@ -2955,18 +2906,18 @@
         <v>10</v>
       </c>
       <c r="T29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -2984,7 +2935,7 @@
         <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="K30" t="s">
         <v>10</v>
@@ -3014,24 +2965,22 @@
         <v>10</v>
       </c>
       <c r="T30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" t="s">
-        <v>223</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -3043,19 +2992,19 @@
         <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="M31" t="s">
         <v>10</v>
       </c>
       <c r="N31" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="O31" t="s">
         <v>10</v>
@@ -3078,22 +3027,25 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>268</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
@@ -3102,19 +3054,19 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="L32" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="M32" t="s">
         <v>10</v>
       </c>
       <c r="N32" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="O32" t="s">
         <v>10</v>
@@ -3137,31 +3089,34 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>264</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K33" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="L33" t="s">
         <v>10</v>
@@ -3193,34 +3148,40 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G34" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H34" t="s">
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="K34" t="s">
         <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="M34" t="s">
         <v>10</v>
@@ -3249,10 +3210,16 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" t="s">
+        <v>226</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -3261,13 +3228,13 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="J35" t="s">
         <v>10</v>
@@ -3276,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="M35" t="s">
         <v>10</v>
@@ -3305,10 +3272,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>251</v>
+      </c>
+      <c r="D36" t="s">
+        <v>226</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -3317,13 +3290,13 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="J36" t="s">
         <v>10</v>
@@ -3347,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="Q36" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R36" t="s">
         <v>10</v>
@@ -3361,28 +3334,34 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" t="s">
+        <v>226</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="H37" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="K37" t="s">
         <v>10</v>
@@ -3403,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="Q37" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="R37" t="s">
         <v>10</v>
@@ -3416,139 +3395,132 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>15</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T38" s="2" t="s">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>16</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T39" s="2" t="s">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>181</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" t="s">
+        <v>10</v>
+      </c>
+      <c r="S39" t="s">
+        <v>10</v>
+      </c>
+      <c r="T39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -3563,7 +3535,7 @@
         <v>10</v>
       </c>
       <c r="K40" t="s">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="L40" t="s">
         <v>10</v>
@@ -3581,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="Q40" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="R40" t="s">
         <v>10</v>
@@ -3595,22 +3567,16 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" t="s">
-        <v>268</v>
-      </c>
-      <c r="D41" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -3622,10 +3588,10 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="K41" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="L41" t="s">
         <v>10</v>
@@ -3643,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="Q41" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="R41" t="s">
         <v>10</v>
@@ -3657,22 +3623,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -3687,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="K42" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="L42" t="s">
         <v>10</v>
@@ -3705,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="Q42" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="R42" t="s">
         <v>10</v>
@@ -3719,16 +3679,16 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -3775,16 +3735,16 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -3796,7 +3756,7 @@
         <v>10</v>
       </c>
       <c r="J44" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K44" t="s">
         <v>10</v>
@@ -3831,16 +3791,16 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -3852,7 +3812,7 @@
         <v>10</v>
       </c>
       <c r="J45" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K45" t="s">
         <v>10</v>
@@ -3886,139 +3846,129 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>17</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>10</v>
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>18</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>10</v>
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -4065,22 +4015,22 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -4089,10 +4039,10 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="K49" t="s">
         <v>10</v>
@@ -4127,10 +4077,13 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -4139,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="H50" t="s">
         <v>10</v>
@@ -4148,7 +4101,7 @@
         <v>10</v>
       </c>
       <c r="J50" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="K50" t="s">
         <v>10</v>
@@ -4157,7 +4110,7 @@
         <v>10</v>
       </c>
       <c r="M50" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N50" t="s">
         <v>10</v>
@@ -4169,7 +4122,7 @@
         <v>10</v>
       </c>
       <c r="Q50" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="R50" t="s">
         <v>10</v>
@@ -4178,15 +4131,18 @@
         <v>10</v>
       </c>
       <c r="T50" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -4195,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="H51" t="s">
         <v>10</v>
@@ -4207,13 +4163,13 @@
         <v>10</v>
       </c>
       <c r="K51" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="L51" t="s">
         <v>10</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N51" t="s">
         <v>10</v>
@@ -4225,7 +4181,7 @@
         <v>10</v>
       </c>
       <c r="Q51" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="R51" t="s">
         <v>10</v>
@@ -4234,15 +4190,18 @@
         <v>10</v>
       </c>
       <c r="T51" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -4251,7 +4210,7 @@
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
         <v>10</v>
@@ -4269,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="N52" t="s">
         <v>10</v>
@@ -4281,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="Q52" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="R52" t="s">
         <v>10</v>
@@ -4290,30 +4249,39 @@
         <v>10</v>
       </c>
       <c r="T52" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" t="s">
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="G53" t="s">
-        <v>197</v>
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="J53" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K53" t="s">
         <v>10</v>
@@ -4334,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="Q53" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="R53" t="s">
         <v>10</v>
@@ -4348,22 +4316,16 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -4375,7 +4337,7 @@
         <v>10</v>
       </c>
       <c r="J54" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s">
         <v>10</v>
@@ -4393,6 +4355,9 @@
         <v>10</v>
       </c>
       <c r="P54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="s">
         <v>10</v>
       </c>
       <c r="R54" t="s">
@@ -4407,22 +4372,16 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D55" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G55" t="s">
         <v>10</v>
@@ -4434,13 +4393,13 @@
         <v>10</v>
       </c>
       <c r="J55" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="K55" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="L55" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M55" t="s">
         <v>10</v>
@@ -4469,16 +4428,22 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" t="s">
+        <v>237</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
@@ -4490,7 +4455,7 @@
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="K56" t="s">
         <v>10</v>
@@ -4508,6 +4473,9 @@
         <v>10</v>
       </c>
       <c r="P56" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q56" t="s">
         <v>10</v>
       </c>
       <c r="R56" t="s">
@@ -4522,10 +4490,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -4578,10 +4546,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -4590,7 +4558,7 @@
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
         <v>10</v>
@@ -4634,10 +4602,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -4646,7 +4614,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="H59" t="s">
         <v>10</v>
@@ -4673,9 +4641,6 @@
         <v>10</v>
       </c>
       <c r="P59" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q59" t="s">
         <v>10</v>
       </c>
       <c r="R59" t="s">
@@ -4690,10 +4655,10 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -4702,7 +4667,7 @@
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
         <v>10</v>
@@ -4746,10 +4711,10 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -4758,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="H61" t="s">
         <v>10</v>
@@ -4802,16 +4767,10 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -4820,7 +4779,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
         <v>10</v>
@@ -4847,6 +4806,9 @@
         <v>10</v>
       </c>
       <c r="P62" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="s">
         <v>10</v>
       </c>
       <c r="R62" t="s">
@@ -4861,16 +4823,10 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -4879,7 +4835,7 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s">
         <v>10</v>
@@ -4888,13 +4844,13 @@
         <v>10</v>
       </c>
       <c r="J63" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="K63" t="s">
         <v>10</v>
       </c>
       <c r="L63" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="M63" t="s">
         <v>10</v>
@@ -4909,7 +4865,7 @@
         <v>10</v>
       </c>
       <c r="Q63" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="R63" t="s">
         <v>10</v>
@@ -4923,16 +4879,10 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -4941,7 +4891,7 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
         <v>10</v>
@@ -4956,7 +4906,7 @@
         <v>10</v>
       </c>
       <c r="L64" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="M64" t="s">
         <v>10</v>
@@ -4985,16 +4935,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>231</v>
-      </c>
-      <c r="D65" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -5003,7 +4947,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="H65" t="s">
         <v>10</v>
@@ -5012,16 +4956,16 @@
         <v>10</v>
       </c>
       <c r="J65" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="K65" t="s">
         <v>10</v>
       </c>
       <c r="L65" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="M65" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N65" t="s">
         <v>10</v>
@@ -5033,7 +4977,7 @@
         <v>10</v>
       </c>
       <c r="Q65" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="R65" t="s">
         <v>10</v>
@@ -5047,16 +4991,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>230</v>
-      </c>
-      <c r="D66" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -5065,7 +5003,7 @@
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="H66" t="s">
         <v>10</v>
@@ -5074,16 +5012,16 @@
         <v>10</v>
       </c>
       <c r="J66" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="K66" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="L66" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="M66" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N66" t="s">
         <v>10</v>
@@ -5095,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="Q66" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="R66" t="s">
         <v>10</v>
@@ -5109,10 +5047,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -5121,7 +5059,7 @@
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="H67" t="s">
         <v>10</v>
@@ -5136,10 +5074,10 @@
         <v>10</v>
       </c>
       <c r="L67" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="M67" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="N67" t="s">
         <v>10</v>
@@ -5151,7 +5089,7 @@
         <v>10</v>
       </c>
       <c r="Q67" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="R67" t="s">
         <v>10</v>
@@ -5165,28 +5103,25 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="I68" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="J68" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="K68" t="s">
         <v>10</v>
@@ -5207,7 +5142,7 @@
         <v>10</v>
       </c>
       <c r="Q68" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="R68" t="s">
         <v>10</v>
@@ -5221,16 +5156,22 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
@@ -5239,7 +5180,7 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="J69" t="s">
         <v>10</v>
@@ -5248,7 +5189,7 @@
         <v>10</v>
       </c>
       <c r="L69" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="M69" t="s">
         <v>10</v>
@@ -5257,7 +5198,7 @@
         <v>10</v>
       </c>
       <c r="O69" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="P69" t="s">
         <v>10</v>
@@ -5277,25 +5218,31 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" t="s">
+        <v>161</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H70" t="s">
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J70" t="s">
         <v>10</v>
@@ -5304,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="L70" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="M70" t="s">
         <v>10</v>
@@ -5313,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="O70" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="P70" t="s">
         <v>10</v>
@@ -5333,16 +5280,22 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
@@ -5360,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="L71" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="M71" t="s">
         <v>10</v>
@@ -5369,7 +5322,7 @@
         <v>10</v>
       </c>
       <c r="O71" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P71" t="s">
         <v>10</v>
@@ -5389,16 +5342,16 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
@@ -5416,16 +5369,16 @@
         <v>10</v>
       </c>
       <c r="L72" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="M72" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N72" t="s">
         <v>10</v>
       </c>
       <c r="O72" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="P72" t="s">
         <v>10</v>
@@ -5445,16 +5398,16 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -5466,22 +5419,22 @@
         <v>10</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K73" t="s">
         <v>10</v>
       </c>
       <c r="L73" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="M73" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N73" t="s">
         <v>10</v>
       </c>
       <c r="O73" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P73" t="s">
         <v>10</v>
@@ -5501,28 +5454,28 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
         <v>10</v>
       </c>
-      <c r="H74" t="s">
-        <v>10</v>
-      </c>
       <c r="I74" t="s">
         <v>10</v>
       </c>
       <c r="J74" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K74" t="s">
         <v>10</v>
@@ -5557,16 +5510,19 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>138</v>
+      </c>
+      <c r="C75" t="s">
+        <v>138</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
         <v>10</v>
@@ -5578,7 +5534,7 @@
         <v>10</v>
       </c>
       <c r="J75" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K75" t="s">
         <v>10</v>
@@ -5608,21 +5564,24 @@
         <v>10</v>
       </c>
       <c r="T75" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>96</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
         <v>10</v>
@@ -5634,7 +5593,7 @@
         <v>10</v>
       </c>
       <c r="J76" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K76" t="s">
         <v>10</v>
@@ -5664,21 +5623,24 @@
         <v>10</v>
       </c>
       <c r="T76" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>93</v>
+      </c>
+      <c r="C77" t="s">
+        <v>93</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
         <v>10</v>
@@ -5720,18 +5682,21 @@
         <v>10</v>
       </c>
       <c r="T77" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>222</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -5746,7 +5711,7 @@
         <v>10</v>
       </c>
       <c r="J78" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K78" t="s">
         <v>10</v>
@@ -5781,16 +5746,22 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" t="s">
+        <v>226</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G79" t="s">
         <v>10</v>
@@ -5802,10 +5773,10 @@
         <v>10</v>
       </c>
       <c r="J79" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K79" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="L79" t="s">
         <v>10</v>
@@ -5837,13 +5808,19 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" t="s">
+        <v>244</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -5858,10 +5835,10 @@
         <v>10</v>
       </c>
       <c r="J80" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K80" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s">
         <v>10</v>
@@ -5879,7 +5856,7 @@
         <v>10</v>
       </c>
       <c r="Q80" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="R80" t="s">
         <v>10</v>
@@ -5893,19 +5870,19 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -5914,16 +5891,16 @@
         <v>10</v>
       </c>
       <c r="H81" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="I81" t="s">
         <v>10</v>
       </c>
       <c r="J81" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="K81" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="L81" t="s">
         <v>10</v>
@@ -5941,7 +5918,7 @@
         <v>10</v>
       </c>
       <c r="Q81" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="R81" t="s">
         <v>10</v>
@@ -5955,13 +5932,19 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" t="s">
+        <v>226</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -5970,16 +5953,16 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="I82" t="s">
         <v>10</v>
       </c>
       <c r="J82" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K82" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="L82" t="s">
         <v>10</v>
@@ -5997,7 +5980,7 @@
         <v>10</v>
       </c>
       <c r="Q82" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="R82" t="s">
         <v>10</v>
@@ -6011,16 +5994,22 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" t="s">
+        <v>226</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="G83" t="s">
         <v>10</v>
@@ -6050,9 +6039,6 @@
         <v>10</v>
       </c>
       <c r="P83" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q83" t="s">
         <v>10</v>
       </c>
       <c r="R83" t="s">
@@ -6067,16 +6053,22 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>139</v>
+      </c>
+      <c r="C84" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" t="s">
+        <v>226</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G84" t="s">
         <v>10</v>
@@ -6094,7 +6086,7 @@
         <v>10</v>
       </c>
       <c r="L84" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M84" t="s">
         <v>10</v>
@@ -6123,19 +6115,25 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>140</v>
+      </c>
+      <c r="C85" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" t="s">
+        <v>226</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="H85" t="s">
         <v>10</v>
@@ -6162,9 +6160,6 @@
         <v>10</v>
       </c>
       <c r="P85" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q85" t="s">
         <v>10</v>
       </c>
       <c r="R85" t="s">
@@ -6179,13 +6174,16 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>227</v>
+      </c>
+      <c r="D86" t="s">
+        <v>226</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -6203,13 +6201,13 @@
         <v>10</v>
       </c>
       <c r="J86" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="K86" t="s">
         <v>10</v>
       </c>
       <c r="L86" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="M86" t="s">
         <v>10</v>
@@ -6224,7 +6222,7 @@
         <v>10</v>
       </c>
       <c r="Q86" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="R86" t="s">
         <v>10</v>
@@ -6233,18 +6231,21 @@
         <v>10</v>
       </c>
       <c r="T86" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>228</v>
+      </c>
+      <c r="D87" t="s">
+        <v>226</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -6268,7 +6269,7 @@
         <v>10</v>
       </c>
       <c r="L87" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="M87" t="s">
         <v>10</v>
@@ -6292,18 +6293,21 @@
         <v>10</v>
       </c>
       <c r="T87" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>278</v>
+      </c>
+      <c r="D88" t="s">
+        <v>226</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -6327,7 +6331,7 @@
         <v>10</v>
       </c>
       <c r="L88" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="M88" t="s">
         <v>10</v>
@@ -6351,144 +6355,142 @@
         <v>10</v>
       </c>
       <c r="T88" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>11</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>10</v>
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" t="s">
+        <v>193</v>
+      </c>
+      <c r="K89" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" t="s">
+        <v>177</v>
+      </c>
+      <c r="M89" t="s">
+        <v>10</v>
+      </c>
+      <c r="N89" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" t="s">
+        <v>10</v>
+      </c>
+      <c r="P89" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" t="s">
+        <v>10</v>
+      </c>
+      <c r="S89" t="s">
+        <v>10</v>
+      </c>
+      <c r="T89" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>19</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>10</v>
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" t="s">
+        <v>10</v>
+      </c>
+      <c r="K90" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" t="s">
+        <v>179</v>
+      </c>
+      <c r="M90" t="s">
+        <v>10</v>
+      </c>
+      <c r="N90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O90" t="s">
+        <v>10</v>
+      </c>
+      <c r="P90" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>10</v>
+      </c>
+      <c r="R90" t="s">
+        <v>10</v>
+      </c>
+      <c r="S90" t="s">
+        <v>10</v>
+      </c>
+      <c r="T90" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -6500,10 +6502,10 @@
         <v>10</v>
       </c>
       <c r="J91" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="K91" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="L91" t="s">
         <v>10</v>
@@ -6512,7 +6514,7 @@
         <v>10</v>
       </c>
       <c r="N91" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="O91" t="s">
         <v>10</v>
@@ -6530,27 +6532,27 @@
         <v>10</v>
       </c>
       <c r="T91" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="H92" t="s">
         <v>10</v>
@@ -6559,19 +6561,19 @@
         <v>10</v>
       </c>
       <c r="J92" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="K92" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="L92" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="M92" t="s">
         <v>10</v>
       </c>
       <c r="N92" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="O92" t="s">
         <v>10</v>
@@ -6589,18 +6591,15 @@
         <v>10</v>
       </c>
       <c r="T92" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -6609,19 +6608,19 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="H93" t="s">
         <v>10</v>
       </c>
       <c r="I93" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="J93" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="K93" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="L93" t="s">
         <v>10</v>
@@ -6648,18 +6647,15 @@
         <v>10</v>
       </c>
       <c r="T93" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -6668,13 +6664,13 @@
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="H94" t="s">
         <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="J94" t="s">
         <v>10</v>
@@ -6683,7 +6679,7 @@
         <v>10</v>
       </c>
       <c r="L94" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="M94" t="s">
         <v>10</v>
@@ -6707,18 +6703,15 @@
         <v>10</v>
       </c>
       <c r="T94" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -6727,13 +6720,13 @@
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="J95" t="s">
         <v>10</v>
@@ -6742,7 +6735,7 @@
         <v>10</v>
       </c>
       <c r="L95" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="M95" t="s">
         <v>10</v>
@@ -6766,137 +6759,130 @@
         <v>10</v>
       </c>
       <c r="T95" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" t="s">
+        <v>10</v>
+      </c>
+      <c r="K96" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M96" t="s">
+        <v>10</v>
+      </c>
+      <c r="N96" t="s">
+        <v>10</v>
+      </c>
+      <c r="O96" t="s">
+        <v>10</v>
+      </c>
+      <c r="P96" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>10</v>
+      </c>
+      <c r="R96" t="s">
+        <v>10</v>
+      </c>
+      <c r="S96" t="s">
+        <v>10</v>
+      </c>
+      <c r="T96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" t="s">
-        <v>10</v>
-      </c>
-      <c r="J96" t="s">
-        <v>10</v>
-      </c>
-      <c r="K96" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" t="s">
-        <v>10</v>
-      </c>
-      <c r="M96" t="s">
-        <v>10</v>
-      </c>
-      <c r="N96" t="s">
-        <v>10</v>
-      </c>
-      <c r="O96" t="s">
-        <v>10</v>
-      </c>
-      <c r="P96" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>10</v>
-      </c>
-      <c r="R96" t="s">
-        <v>10</v>
-      </c>
-      <c r="S96" t="s">
-        <v>10</v>
-      </c>
-      <c r="T96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>10</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T97" s="2" t="s">
-        <v>10</v>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" t="s">
+        <v>169</v>
+      </c>
+      <c r="I97" t="s">
+        <v>207</v>
+      </c>
+      <c r="J97" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" t="s">
+        <v>10</v>
+      </c>
+      <c r="M97" t="s">
+        <v>10</v>
+      </c>
+      <c r="N97" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" t="s">
+        <v>10</v>
+      </c>
+      <c r="P97" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>50</v>
+      </c>
+      <c r="R97" t="s">
+        <v>10</v>
+      </c>
+      <c r="S97" t="s">
+        <v>10</v>
+      </c>
+      <c r="T97" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -6905,16 +6891,16 @@
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="I98" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="J98" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="K98" t="s">
         <v>10</v>
@@ -6935,7 +6921,7 @@
         <v>10</v>
       </c>
       <c r="Q98" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="R98" t="s">
         <v>10</v>
@@ -6944,18 +6930,15 @@
         <v>10</v>
       </c>
       <c r="T98" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
-      </c>
-      <c r="C99" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -6964,7 +6947,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H99" t="s">
         <v>10</v>
@@ -7003,24 +6986,21 @@
         <v>10</v>
       </c>
       <c r="T99" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="G100" t="s">
         <v>10</v>
@@ -7062,7 +7042,7 @@
         <v>10</v>
       </c>
       <c r="T100" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7125,69 +7105,68 @@
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>20</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T102" s="2" t="s">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" t="s">
+        <v>10</v>
+      </c>
+      <c r="K102" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" t="s">
+        <v>10</v>
+      </c>
+      <c r="N102" t="s">
+        <v>10</v>
+      </c>
+      <c r="O102" t="s">
+        <v>10</v>
+      </c>
+      <c r="P102" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>10</v>
+      </c>
+      <c r="R102" t="s">
+        <v>10</v>
+      </c>
+      <c r="S102" t="s">
+        <v>10</v>
+      </c>
+      <c r="T102" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A3:T102">
-    <sortCondition ref="B3:B102"/>
+    <sortCondition ref="A3:A102"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7198,7 +7177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -7213,52 +7192,52 @@
         <v>218</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7268,53 +7247,53 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/board/crossBar.xlsx
+++ b/board/crossBar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="282">
   <si>
     <t>AF0</t>
   </si>
@@ -859,6 +859,9 @@
   </si>
   <si>
     <t>OPTO_SIGNAL_RELAY</t>
+  </si>
+  <si>
+    <t>IMEAS_RELAY_3</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
       <selection activeCell="G2" sqref="G2"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89:D89"/>
+      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6121,7 +6124,7 @@
         <v>140</v>
       </c>
       <c r="C85" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D85" t="s">
         <v>226</v>
@@ -6180,7 +6183,7 @@
         <v>68</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="D86" t="s">
         <v>226</v>
@@ -6242,7 +6245,7 @@
         <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="D87" t="s">
         <v>226</v>
@@ -6304,7 +6307,7 @@
         <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D88" t="s">
         <v>226</v>
@@ -6366,7 +6369,7 @@
         <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="D89" t="s">
         <v>226</v>
@@ -6426,6 +6429,12 @@
       </c>
       <c r="B90" t="s">
         <v>71</v>
+      </c>
+      <c r="C90" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90" t="s">
+        <v>226</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>

--- a/board/crossBar.xlsx
+++ b/board/crossBar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="285">
   <si>
     <t>AF0</t>
   </si>
@@ -66,9 +66,6 @@
     <t>TIM5_CH4</t>
   </si>
   <si>
-    <t>USART4_CTS</t>
-  </si>
-  <si>
     <t>EVENT OUT</t>
   </si>
   <si>
@@ -862,6 +859,18 @@
   </si>
   <si>
     <t>IMEAS_RELAY_3</t>
+  </si>
+  <si>
+    <t>COM1_TX</t>
+  </si>
+  <si>
+    <t>COM1_RX</t>
+  </si>
+  <si>
+    <t>COM2_TX</t>
+  </si>
+  <si>
+    <t>COM2_RX</t>
   </si>
 </sst>
 </file>
@@ -1212,12 +1221,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G2" sqref="G2"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1275,75 +1284,75 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>10</v>
@@ -1360,11 +1369,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -1408,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1416,11 +1425,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -1464,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="T4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1472,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1490,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -1520,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="T5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1528,16 +1537,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1546,13 +1555,13 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -1582,7 +1591,7 @@
         <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1590,25 +1599,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>83</v>
-      </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -1638,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="T7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1646,10 +1655,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1705,7 +1714,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1753,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="T9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1761,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1809,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="T10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1817,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1865,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="T11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1873,10 +1882,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -1932,10 +1941,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -2168,7 +2177,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -2216,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2224,7 +2233,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -2272,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2280,7 +2289,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -2298,10 +2307,10 @@
         <v>10</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>10</v>
@@ -2336,7 +2345,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -2354,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>10</v>
@@ -2392,10 +2401,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -2451,10 +2460,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -2510,10 +2519,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -2569,10 +2578,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -2634,10 +2643,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
         <v>10</v>
@@ -2652,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s">
         <v>10</v>
@@ -2676,7 +2685,7 @@
         <v>10</v>
       </c>
       <c r="T25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2684,16 +2693,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" t="s">
         <v>10</v>
@@ -2708,7 +2717,7 @@
         <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M26" t="s">
         <v>10</v>
@@ -2732,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="T26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2740,19 +2749,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" t="s">
+        <v>177</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -2764,7 +2779,7 @@
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M27" t="s">
         <v>10</v>
@@ -2788,7 +2803,7 @@
         <v>10</v>
       </c>
       <c r="T27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2796,25 +2811,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -2826,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s">
         <v>10</v>
@@ -2850,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="T28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2858,10 +2873,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -2917,10 +2932,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
@@ -2976,9 +2991,14 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" t="s">
+        <v>225</v>
+      </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
@@ -2995,13 +3015,13 @@
         <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M31" t="s">
         <v>10</v>
@@ -3025,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="T31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3033,19 +3053,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" t="s">
         <v>268</v>
       </c>
-      <c r="D32" t="s">
-        <v>269</v>
-      </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -3057,7 +3077,7 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s">
         <v>10</v>
@@ -3087,7 +3107,7 @@
         <v>10</v>
       </c>
       <c r="T32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3095,19 +3115,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
@@ -3116,7 +3136,7 @@
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s">
         <v>10</v>
@@ -3146,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="T33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3154,22 +3174,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H34" t="s">
         <v>10</v>
@@ -3178,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s">
         <v>10</v>
@@ -3208,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="T34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3216,13 +3236,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -3270,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="T35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3278,13 +3298,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
@@ -3332,7 +3352,7 @@
         <v>10</v>
       </c>
       <c r="T36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3340,22 +3360,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
         <v>10</v>
@@ -3394,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="T37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3402,16 +3422,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H38" t="s">
         <v>10</v>
@@ -3450,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="T38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3458,10 +3478,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
@@ -3479,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K39" t="s">
         <v>10</v>
@@ -3509,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="T39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -3517,13 +3537,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -3565,7 +3585,7 @@
         <v>10</v>
       </c>
       <c r="T40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3573,13 +3593,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -3621,7 +3641,7 @@
         <v>10</v>
       </c>
       <c r="T41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -3629,13 +3649,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -3677,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="T42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3685,13 +3705,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -3733,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="T43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3741,13 +3761,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -3759,7 +3779,7 @@
         <v>10</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K44" t="s">
         <v>10</v>
@@ -3789,7 +3809,7 @@
         <v>10</v>
       </c>
       <c r="T44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3797,13 +3817,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -3815,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K45" t="s">
         <v>10</v>
@@ -3845,7 +3865,7 @@
         <v>10</v>
       </c>
       <c r="T45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3853,13 +3873,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -3871,7 +3891,7 @@
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K46" t="s">
         <v>10</v>
@@ -3901,7 +3921,7 @@
         <v>10</v>
       </c>
       <c r="T46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -3909,13 +3929,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -3927,7 +3947,7 @@
         <v>10</v>
       </c>
       <c r="J47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K47" t="s">
         <v>10</v>
@@ -3957,7 +3977,7 @@
         <v>10</v>
       </c>
       <c r="T47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -3965,13 +3985,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -4013,7 +4033,7 @@
         <v>10</v>
       </c>
       <c r="T48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -4021,19 +4041,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -4042,10 +4062,10 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K49" t="s">
         <v>10</v>
@@ -4075,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="T49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -4083,10 +4103,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -4142,10 +4162,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -4201,10 +4221,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -4260,19 +4280,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
@@ -4281,10 +4301,10 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s">
         <v>10</v>
@@ -4314,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="T53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -4322,13 +4342,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -4340,7 +4360,7 @@
         <v>10</v>
       </c>
       <c r="J54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K54" t="s">
         <v>10</v>
@@ -4370,7 +4390,7 @@
         <v>10</v>
       </c>
       <c r="T54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -4378,13 +4398,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
         <v>10</v>
@@ -4396,10 +4416,10 @@
         <v>10</v>
       </c>
       <c r="J55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L55" t="s">
         <v>10</v>
@@ -4426,7 +4446,7 @@
         <v>10</v>
       </c>
       <c r="T55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -4434,19 +4454,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
@@ -4458,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="J56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K56" t="s">
         <v>10</v>
@@ -4488,7 +4508,7 @@
         <v>10</v>
       </c>
       <c r="T56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4496,7 +4516,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -4544,7 +4564,7 @@
         <v>10</v>
       </c>
       <c r="T57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -4552,7 +4572,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -4600,7 +4620,7 @@
         <v>10</v>
       </c>
       <c r="T58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -4608,7 +4628,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -4653,7 +4673,7 @@
         <v>10</v>
       </c>
       <c r="T59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -4661,7 +4681,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -4709,7 +4729,7 @@
         <v>10</v>
       </c>
       <c r="T60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -4717,7 +4737,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -4726,7 +4746,7 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H61" t="s">
         <v>10</v>
@@ -4765,7 +4785,7 @@
         <v>10</v>
       </c>
       <c r="T61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -4773,7 +4793,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
@@ -4782,7 +4802,7 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s">
         <v>10</v>
@@ -4821,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="T62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -4829,7 +4849,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -4838,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s">
         <v>10</v>
@@ -4877,7 +4897,7 @@
         <v>10</v>
       </c>
       <c r="T63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -4885,7 +4905,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -4894,7 +4914,7 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
         <v>10</v>
@@ -4933,7 +4953,7 @@
         <v>10</v>
       </c>
       <c r="T64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -4941,47 +4961,47 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>197</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" t="s">
+        <v>190</v>
+      </c>
+      <c r="K65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" t="s">
+        <v>10</v>
+      </c>
+      <c r="P65" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q65" t="s">
         <v>57</v>
       </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
-        <v>198</v>
-      </c>
-      <c r="H65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" t="s">
-        <v>10</v>
-      </c>
-      <c r="J65" t="s">
-        <v>191</v>
-      </c>
-      <c r="K65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" t="s">
-        <v>10</v>
-      </c>
-      <c r="M65" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" t="s">
-        <v>10</v>
-      </c>
-      <c r="O65" t="s">
-        <v>10</v>
-      </c>
-      <c r="P65" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>58</v>
-      </c>
       <c r="R65" t="s">
         <v>10</v>
       </c>
@@ -4989,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="T65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -4997,47 +5017,47 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>198</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" t="s">
+        <v>213</v>
+      </c>
+      <c r="L66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" t="s">
+        <v>10</v>
+      </c>
+      <c r="P66" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" t="s">
         <v>59</v>
       </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" t="s">
-        <v>199</v>
-      </c>
-      <c r="H66" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" t="s">
-        <v>10</v>
-      </c>
-      <c r="J66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" t="s">
-        <v>214</v>
-      </c>
-      <c r="L66" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" t="s">
-        <v>24</v>
-      </c>
-      <c r="N66" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" t="s">
-        <v>10</v>
-      </c>
-      <c r="P66" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>60</v>
-      </c>
       <c r="R66" t="s">
         <v>10</v>
       </c>
@@ -5045,7 +5065,7 @@
         <v>10</v>
       </c>
       <c r="T66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -5053,47 +5073,47 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>202</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" t="s">
+        <v>10</v>
+      </c>
+      <c r="M67" t="s">
         <v>61</v>
       </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" t="s">
-        <v>203</v>
-      </c>
-      <c r="H67" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" t="s">
-        <v>10</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67" t="s">
+        <v>10</v>
+      </c>
+      <c r="P67" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q67" t="s">
         <v>62</v>
       </c>
-      <c r="N67" t="s">
-        <v>10</v>
-      </c>
-      <c r="O67" t="s">
-        <v>10</v>
-      </c>
-      <c r="P67" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>63</v>
-      </c>
       <c r="R67" t="s">
         <v>10</v>
       </c>
@@ -5101,7 +5121,7 @@
         <v>10</v>
       </c>
       <c r="T67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -5109,22 +5129,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K68" t="s">
         <v>10</v>
@@ -5145,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="Q68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="R68" t="s">
         <v>10</v>
@@ -5154,7 +5174,7 @@
         <v>10</v>
       </c>
       <c r="T68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -5162,47 +5182,47 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>200</v>
+      </c>
+      <c r="J69" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" t="s">
+        <v>161</v>
+      </c>
+      <c r="M69" t="s">
+        <v>10</v>
+      </c>
+      <c r="N69" t="s">
+        <v>10</v>
+      </c>
+      <c r="O69" t="s">
         <v>36</v>
       </c>
-      <c r="C69" t="s">
-        <v>270</v>
-      </c>
-      <c r="D69" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" t="s">
-        <v>157</v>
-      </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" t="s">
-        <v>201</v>
-      </c>
-      <c r="J69" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" t="s">
-        <v>162</v>
-      </c>
-      <c r="M69" t="s">
-        <v>10</v>
-      </c>
-      <c r="N69" t="s">
-        <v>10</v>
-      </c>
-      <c r="O69" t="s">
-        <v>37</v>
-      </c>
       <c r="P69" t="s">
         <v>10</v>
       </c>
@@ -5216,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="T69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -5224,47 +5244,47 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>199</v>
+      </c>
+      <c r="J70" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" t="s">
+        <v>160</v>
+      </c>
+      <c r="M70" t="s">
+        <v>10</v>
+      </c>
+      <c r="N70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O70" t="s">
         <v>38</v>
       </c>
-      <c r="C70" t="s">
-        <v>233</v>
-      </c>
-      <c r="D70" t="s">
-        <v>161</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G70" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" t="s">
-        <v>200</v>
-      </c>
-      <c r="J70" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70" t="s">
-        <v>161</v>
-      </c>
-      <c r="M70" t="s">
-        <v>10</v>
-      </c>
-      <c r="N70" t="s">
-        <v>10</v>
-      </c>
-      <c r="O70" t="s">
-        <v>39</v>
-      </c>
       <c r="P70" t="s">
         <v>10</v>
       </c>
@@ -5278,7 +5298,7 @@
         <v>10</v>
       </c>
       <c r="T70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -5286,38 +5306,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
         <v>10</v>
       </c>
       <c r="F71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" t="s">
         <v>155</v>
       </c>
-      <c r="G71" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" t="s">
-        <v>10</v>
-      </c>
-      <c r="J71" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" t="s">
-        <v>10</v>
-      </c>
-      <c r="L71" t="s">
-        <v>156</v>
-      </c>
       <c r="M71" t="s">
         <v>10</v>
       </c>
@@ -5325,7 +5345,7 @@
         <v>10</v>
       </c>
       <c r="O71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P71" t="s">
         <v>10</v>
@@ -5340,7 +5360,7 @@
         <v>10</v>
       </c>
       <c r="T71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -5348,13 +5368,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
@@ -5372,17 +5392,17 @@
         <v>10</v>
       </c>
       <c r="L72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M72" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" t="s">
         <v>21</v>
       </c>
-      <c r="N72" t="s">
-        <v>10</v>
-      </c>
-      <c r="O72" t="s">
-        <v>22</v>
-      </c>
       <c r="P72" t="s">
         <v>10</v>
       </c>
@@ -5396,7 +5416,7 @@
         <v>10</v>
       </c>
       <c r="T72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -5404,13 +5424,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -5428,17 +5448,17 @@
         <v>10</v>
       </c>
       <c r="L73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M73" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" t="s">
+        <v>10</v>
+      </c>
+      <c r="O73" t="s">
         <v>24</v>
       </c>
-      <c r="N73" t="s">
-        <v>10</v>
-      </c>
-      <c r="O73" t="s">
-        <v>25</v>
-      </c>
       <c r="P73" t="s">
         <v>10</v>
       </c>
@@ -5452,7 +5472,7 @@
         <v>10</v>
       </c>
       <c r="T73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -5460,13 +5480,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -5508,7 +5528,7 @@
         <v>10</v>
       </c>
       <c r="T74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -5516,10 +5536,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
@@ -5575,10 +5595,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E76" t="s">
         <v>10</v>
@@ -5634,10 +5654,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
         <v>10</v>
@@ -5693,13 +5713,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -5744,7 +5764,7 @@
         <v>10</v>
       </c>
       <c r="T78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -5752,34 +5772,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" t="s">
         <v>28</v>
       </c>
-      <c r="F79" t="s">
-        <v>147</v>
-      </c>
-      <c r="G79" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" t="s">
-        <v>10</v>
-      </c>
-      <c r="J79" t="s">
-        <v>29</v>
-      </c>
       <c r="K79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L79" t="s">
         <v>10</v>
@@ -5806,7 +5826,7 @@
         <v>10</v>
       </c>
       <c r="T79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -5814,13 +5834,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -5841,7 +5861,7 @@
         <v>10</v>
       </c>
       <c r="K80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L80" t="s">
         <v>10</v>
@@ -5859,7 +5879,7 @@
         <v>10</v>
       </c>
       <c r="Q80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R80" t="s">
         <v>10</v>
@@ -5868,7 +5888,7 @@
         <v>10</v>
       </c>
       <c r="T80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -5876,34 +5896,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81" t="s">
         <v>210</v>
       </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" t="s">
-        <v>10</v>
-      </c>
-      <c r="J81" t="s">
-        <v>211</v>
-      </c>
       <c r="K81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L81" t="s">
         <v>10</v>
@@ -5921,7 +5941,7 @@
         <v>10</v>
       </c>
       <c r="Q81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R81" t="s">
         <v>10</v>
@@ -5930,7 +5950,7 @@
         <v>10</v>
       </c>
       <c r="T81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -5938,13 +5958,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -5965,7 +5985,7 @@
         <v>10</v>
       </c>
       <c r="K82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L82" t="s">
         <v>10</v>
@@ -5983,7 +6003,7 @@
         <v>10</v>
       </c>
       <c r="Q82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R82" t="s">
         <v>10</v>
@@ -5992,7 +6012,7 @@
         <v>10</v>
       </c>
       <c r="T82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -6000,13 +6020,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -6051,7 +6071,7 @@
         <v>10</v>
       </c>
       <c r="T83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -6059,14 +6079,14 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" t="s">
         <v>225</v>
       </c>
-      <c r="D84" t="s">
-        <v>226</v>
-      </c>
       <c r="E84" t="s">
         <v>10</v>
       </c>
@@ -6089,7 +6109,7 @@
         <v>10</v>
       </c>
       <c r="L84" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M84" t="s">
         <v>10</v>
@@ -6113,7 +6133,7 @@
         <v>10</v>
       </c>
       <c r="T84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -6121,13 +6141,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -6136,7 +6156,7 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H85" t="s">
         <v>10</v>
@@ -6172,7 +6192,7 @@
         <v>10</v>
       </c>
       <c r="T85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -6180,13 +6200,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -6204,13 +6224,13 @@
         <v>10</v>
       </c>
       <c r="J86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K86" t="s">
         <v>10</v>
       </c>
       <c r="L86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M86" t="s">
         <v>10</v>
@@ -6225,7 +6245,7 @@
         <v>10</v>
       </c>
       <c r="Q86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R86" t="s">
         <v>10</v>
@@ -6234,7 +6254,7 @@
         <v>10</v>
       </c>
       <c r="T86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -6242,13 +6262,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
@@ -6272,7 +6292,7 @@
         <v>10</v>
       </c>
       <c r="L87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M87" t="s">
         <v>10</v>
@@ -6296,7 +6316,7 @@
         <v>10</v>
       </c>
       <c r="T87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -6304,13 +6324,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
@@ -6334,7 +6354,7 @@
         <v>10</v>
       </c>
       <c r="L88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M88" t="s">
         <v>10</v>
@@ -6358,7 +6378,7 @@
         <v>10</v>
       </c>
       <c r="T88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -6366,13 +6386,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -6390,13 +6410,13 @@
         <v>10</v>
       </c>
       <c r="J89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K89" t="s">
         <v>10</v>
       </c>
       <c r="L89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M89" t="s">
         <v>10</v>
@@ -6420,7 +6440,7 @@
         <v>10</v>
       </c>
       <c r="T89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -6428,13 +6448,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -6458,7 +6478,7 @@
         <v>10</v>
       </c>
       <c r="L90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M90" t="s">
         <v>10</v>
@@ -6482,7 +6502,7 @@
         <v>10</v>
       </c>
       <c r="T90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -6490,16 +6510,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -6511,10 +6531,10 @@
         <v>10</v>
       </c>
       <c r="J91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L91" t="s">
         <v>10</v>
@@ -6523,7 +6543,7 @@
         <v>10</v>
       </c>
       <c r="N91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O91" t="s">
         <v>10</v>
@@ -6541,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="T91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -6549,19 +6569,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
       </c>
       <c r="G92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H92" t="s">
         <v>10</v>
@@ -6570,20 +6590,20 @@
         <v>10</v>
       </c>
       <c r="J92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K92" t="s">
+        <v>209</v>
+      </c>
+      <c r="L92" t="s">
         <v>210</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
+        <v>10</v>
+      </c>
+      <c r="N92" t="s">
         <v>211</v>
       </c>
-      <c r="M92" t="s">
-        <v>10</v>
-      </c>
-      <c r="N92" t="s">
-        <v>212</v>
-      </c>
       <c r="O92" t="s">
         <v>10</v>
       </c>
@@ -6600,7 +6620,7 @@
         <v>10</v>
       </c>
       <c r="T92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -6608,7 +6628,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -6617,19 +6637,19 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H93" t="s">
         <v>10</v>
       </c>
       <c r="I93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L93" t="s">
         <v>10</v>
@@ -6656,7 +6676,7 @@
         <v>10</v>
       </c>
       <c r="T93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -6664,7 +6684,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>281</v>
+      </c>
+      <c r="D94" t="s">
+        <v>160</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -6673,13 +6699,13 @@
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H94" t="s">
         <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J94" t="s">
         <v>10</v>
@@ -6688,7 +6714,7 @@
         <v>10</v>
       </c>
       <c r="L94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M94" t="s">
         <v>10</v>
@@ -6712,7 +6738,7 @@
         <v>10</v>
       </c>
       <c r="T94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -6720,7 +6746,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>282</v>
+      </c>
+      <c r="D95" t="s">
+        <v>155</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -6729,13 +6761,13 @@
         <v>10</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J95" t="s">
         <v>10</v>
@@ -6744,7 +6776,7 @@
         <v>10</v>
       </c>
       <c r="L95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M95" t="s">
         <v>10</v>
@@ -6768,7 +6800,7 @@
         <v>10</v>
       </c>
       <c r="T95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -6835,47 +6867,47 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
         <v>48</v>
       </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
+        <v>168</v>
+      </c>
+      <c r="I97" t="s">
+        <v>206</v>
+      </c>
+      <c r="J97" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" t="s">
+        <v>10</v>
+      </c>
+      <c r="M97" t="s">
+        <v>10</v>
+      </c>
+      <c r="N97" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" t="s">
+        <v>10</v>
+      </c>
+      <c r="P97" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" t="s">
         <v>49</v>
       </c>
-      <c r="H97" t="s">
-        <v>169</v>
-      </c>
-      <c r="I97" t="s">
-        <v>207</v>
-      </c>
-      <c r="J97" t="s">
-        <v>10</v>
-      </c>
-      <c r="K97" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" t="s">
-        <v>10</v>
-      </c>
-      <c r="M97" t="s">
-        <v>10</v>
-      </c>
-      <c r="N97" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" t="s">
-        <v>10</v>
-      </c>
-      <c r="P97" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>50</v>
-      </c>
       <c r="R97" t="s">
         <v>10</v>
       </c>
@@ -6883,7 +6915,7 @@
         <v>10</v>
       </c>
       <c r="T97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -6891,47 +6923,47 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" t="s">
+        <v>204</v>
+      </c>
+      <c r="I98" t="s">
+        <v>207</v>
+      </c>
+      <c r="J98" t="s">
+        <v>184</v>
+      </c>
+      <c r="K98" t="s">
+        <v>10</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M98" t="s">
+        <v>10</v>
+      </c>
+      <c r="N98" t="s">
+        <v>10</v>
+      </c>
+      <c r="O98" t="s">
+        <v>10</v>
+      </c>
+      <c r="P98" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q98" t="s">
         <v>51</v>
       </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" t="s">
-        <v>205</v>
-      </c>
-      <c r="I98" t="s">
-        <v>208</v>
-      </c>
-      <c r="J98" t="s">
-        <v>185</v>
-      </c>
-      <c r="K98" t="s">
-        <v>10</v>
-      </c>
-      <c r="L98" t="s">
-        <v>10</v>
-      </c>
-      <c r="M98" t="s">
-        <v>10</v>
-      </c>
-      <c r="N98" t="s">
-        <v>10</v>
-      </c>
-      <c r="O98" t="s">
-        <v>10</v>
-      </c>
-      <c r="P98" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>52</v>
-      </c>
       <c r="R98" t="s">
         <v>10</v>
       </c>
@@ -6939,7 +6971,7 @@
         <v>10</v>
       </c>
       <c r="T98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -6947,7 +6979,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
@@ -6956,7 +6988,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H99" t="s">
         <v>10</v>
@@ -6995,7 +7027,7 @@
         <v>10</v>
       </c>
       <c r="T99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -7003,13 +7035,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E100" t="s">
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G100" t="s">
         <v>10</v>
@@ -7051,7 +7083,7 @@
         <v>10</v>
       </c>
       <c r="T100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -7059,10 +7091,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
@@ -7118,10 +7150,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -7198,111 +7230,111 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/board/crossBar.xlsx
+++ b/board/crossBar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="284">
   <si>
     <t>AF0</t>
   </si>
@@ -850,9 +850,6 @@
   </si>
   <si>
     <t>CHG_RELAY</t>
-  </si>
-  <si>
-    <t>DISCHG_RELAY_MAIN</t>
   </si>
   <si>
     <t>OPTO_SIGNAL_RELAY</t>
@@ -1226,7 +1223,7 @@
       <selection activeCell="G2" sqref="G2"/>
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
-      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomRight" activeCell="C88" sqref="C88:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2749,7 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D27" t="s">
         <v>177</v>
@@ -2814,7 +2811,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D28" t="s">
         <v>176</v>
@@ -6144,7 +6141,7 @@
         <v>139</v>
       </c>
       <c r="C85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D85" t="s">
         <v>225</v>
@@ -6203,7 +6200,7 @@
         <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D86" t="s">
         <v>225</v>
@@ -6327,7 +6324,7 @@
         <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="D88" t="s">
         <v>225</v>
@@ -6389,7 +6386,7 @@
         <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D89" t="s">
         <v>225</v>
@@ -6450,12 +6447,6 @@
       <c r="B90" t="s">
         <v>70</v>
       </c>
-      <c r="C90" t="s">
-        <v>227</v>
-      </c>
-      <c r="D90" t="s">
-        <v>225</v>
-      </c>
       <c r="E90" t="s">
         <v>10</v>
       </c>
@@ -6687,7 +6678,7 @@
         <v>45</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D94" t="s">
         <v>160</v>
@@ -6749,7 +6740,7 @@
         <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D95" t="s">
         <v>155</v>
